--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Acute Coronary Syndrome_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Acute Coronary Syndrome_spec_overall.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpi" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tightness (character of pain)</t>
+          <t>Tightness (character of pain) is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tightness is a common descriptor of chest pain in Acute Coronary Syndrome, indicating potential myocardial ischemia.</t>
+          <t>Chest pain described as 'tightness' is a classic symptom of Acute Coronary Syndrome, often associated with myocardial ischemia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Current heartburn</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Heartburn is more commonly associated with gastrointestinal issues rather than cardiac problems, suggesting a lower likelihood of Acute Coronary Syndrome.</t>
+          <t>Pain relief with regurgitation is more indicative of gastroesophageal reflux disease (GERD) rather than Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain worse when lying down (positional)</t>
+          <t>Reports pain location is behind sternum, middle of chest is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Positional pain can suggest cardiac issues, as it may indicate increased pressure on the heart or surrounding structures.</t>
+          <t>Pain located behind the sternum is typical for cardiac-related chest pain, supporting the possibility of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years)</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn typically indicates a stable gastrointestinal condition rather than an acute cardiac event.</t>
+          <t>Heartburn is a common symptom of GERD and is not typically associated with Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chest pain related to eating can indicate esophageal spasm or cardiac issues, raising suspicion for Acute Coronary Syndrome.</t>
+          <t>While not classic, chest pain associated with eating can sometimes be seen in cardiac conditions, especially if it triggers angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years)</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux symptoms are more indicative of gastroesophageal reflux disease (GERD) rather than Acute Coronary Syndrome.</t>
+          <t>Reflux symptoms are more suggestive of a gastrointestinal cause rather than a cardiac cause like Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia)</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can be associated with esophageal issues that may overlap with cardiac symptoms, suggesting a potential cardiac origin.</t>
+          <t>Although this finding is more suggestive of musculoskeletal pain, it can sometimes be seen in cardiac conditions due to referred pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief</t>
+          <t>Pain previously better with antacids is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If antacids are no longer effective, it suggests a change in the underlying condition, likely pointing away from cardiac causes.</t>
+          <t>The absence of relief with antacids suggests a non-gastrointestinal cause, but the presence of other GERD symptoms still argues against ACS.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Reports pain location is behind sternum, middle of chest</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pain located behind the sternum is a classic presentation of chest pain in Acute Coronary Syndrome.</t>
+          <t>Positional chest pain can be seen in pericarditis, but in some cases, it may also be associated with cardiac ischemia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Weight loss reported</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Weight loss can indicate chronic illness or gastrointestinal issues rather than an acute cardiac event, reducing the likelihood of Acute Coronary Syndrome.</t>
+          <t>Chronic heartburn over years is more consistent with GERD than with Acute Coronary Syndrome, which typically presents acutely.</t>
         </is>
       </c>
     </row>
@@ -612,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>takes amlodipine</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker often used to treat hypertension and angina, which can be associated with Acute Coronary Syndrome.</t>
+          <t>Amlodipine is often used to treat hypertension, which can be a risk factor for coronary artery disease and Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -627,63 +628,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a history of Coronary Artery Disease significantly reduces the likelihood of Acute Coronary Syndrome.</t>
+          <t>The absence of previously diagnosed coronary artery disease significantly reduces the likelihood of Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>middle age is present</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Women may present differently with Acute Coronary Syndrome and can have atypical symptoms, which can sometimes lead to underdiagnosis in this population.</t>
+          <t>Middle age is a risk factor for Acute Coronary Syndrome as the risk of coronary artery disease increases with age.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Prior myocardial infarction is absent</t>
+          <t>prior myocardial infarction is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A history of myocardial infarction is a strong risk factor for Acute Coronary Syndrome; its absence suggests a lower likelihood of the condition.</t>
+          <t>A history of myocardial infarction is a strong risk factor for Acute Coronary Syndrome, so its absence is significant.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Female is present</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Middle age is a risk factor for cardiovascular diseases, including Acute Coronary Syndrome, as the risk increases with age.</t>
+          <t>While males have a higher risk, females can still develop Acute Coronary Syndrome, especially post-menopause.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>diagnosed hypertension is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hypertension is a major risk factor for Acute Coronary Syndrome; its absence indicates a lower risk profile.</t>
+          <t>Hypertension is a major risk factor for Acute Coronary Syndrome, so its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>absence of recent medication changes</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use disorder is a risk factor for cardiovascular disease, its absence does not directly support Acute Coronary Syndrome but may indicate a lower risk profile.</t>
+          <t>Stable medication use without recent changes might suggest a chronic condition like coronary artery disease, which can lead to Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -693,29 +694,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is another significant risk factor for cardiovascular diseases, including Acute Coronary Syndrome; its absence further reduces the likelihood.</t>
+          <t>Hyperlipidemia is a risk factor for coronary artery disease and Acute Coronary Syndrome, so its absence is notable.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>absence of environmental allergies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use disorder, the absence of nicotine dependence may suggest a lower risk for cardiovascular events, but does not directly support the diagnosis.</t>
+          <t>The absence of environmental allergies does not directly relate to Acute Coronary Syndrome but suggests a lack of other chronic inflammatory conditions.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Type 2 diabetes is absent</t>
+          <t>type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diabetes is a well-known risk factor for cardiovascular diseases; its absence suggests a lower risk for Acute Coronary Syndrome.</t>
+          <t>Diabetes is a significant risk factor for cardiovascular diseases, including Acute Coronary Syndrome, so its absence is important.</t>
         </is>
       </c>
     </row>
@@ -768,95 +769,95 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of myocardial infarction significantly increases the risk of Acute Coronary Syndrome, indicating a genetic predisposition.</t>
+          <t>A family history of myocardial infarction significantly increases the risk of Acute Coronary Syndrome due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of alcohol use is generally associated with a lower risk of cardiovascular diseases, including Acute Coronary Syndrome.</t>
+          <t>The absence of current tobacco use reduces the risk of Acute Coronary Syndrome, as smoking is a major modifiable risk factor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recent social stress is a known risk factor that can precipitate Acute Coronary Syndrome, particularly in susceptible individuals.</t>
+          <t>Prior tobacco use is a known risk factor for cardiovascular diseases, including Acute Coronary Syndrome, due to its long-term effects on blood vessels.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use is a strong protective factor against the development of Acute Coronary Syndrome.</t>
+          <t>The absence of alcohol use reduces the risk of cardiovascular events, including Acute Coronary Syndrome, as excessive alcohol consumption is a known risk factor.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prior tobacco use is associated with increased cardiovascular risk, which can contribute to the development of Acute Coronary Syndrome.</t>
+          <t>Social stress can contribute to the development of Acute Coronary Syndrome by increasing blood pressure and heart rate, which can precipitate cardiac events.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of recent travel may indicate a stable lifestyle, which can be associated with lower stress and risk factors for Acute Coronary Syndrome.</t>
+          <t>The absence of a family history of Rheumatoid Arthritis does not directly impact the likelihood of Acute Coronary Syndrome, but it removes a potential inflammatory risk factor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use is generally a risk factor, its absence may suggest a healthier lifestyle, but it does not negate the presence of other risk factors.</t>
+          <t>The absence of a family history of cancer does not directly impact the likelihood of Acute Coronary Syndrome, but it removes a potential confounding factor.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of a family history of cancer may suggest a lower overall burden of chronic diseases, which can be protective.</t>
+          <t>The absence of a recent medical procedure reduces the likelihood of post-procedural complications that could mimic Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a family history of Rheumatoid Arthritis does not directly support Acute Coronary Syndrome but indicates a lack of certain inflammatory conditions that could complicate cardiovascular health.</t>
+          <t>The absence of recent travel reduces the likelihood of other conditions that might mimic or complicate the presentation of Acute Coronary Syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may indicate better overall health, which can be protective against cardiovascular issues.</t>
+          <t>The absence of gestational complications reduces the risk of cardiovascular issues later in life, which could include Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a known risk factor for Acute Coronary Syndrome, as elevated lipid levels can contribute to atherosclerosis and subsequent coronary artery disease.</t>
+          <t>Telangiectasias can be associated with systemic conditions that may have cardiovascular implications, though not directly indicative of Acute Coronary Syndrome (ACS), they can be seen in some systemic diseases that affect the heart.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of a strong positive ANA test suggests that autoimmune diseases, which can present with similar symptoms, are less likely, but it does not directly rule out Acute Coronary Syndrome.</t>
+          <t>High blood pressure is a significant risk factor for ACS, and its absence reduces the likelihood of ACS.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANA strong positive is absent</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The absence of a strong positive Antinuclear Antibody (ANA) test suggests that autoimmune conditions, which can mimic cardiac symptoms, are less likely, thereby supporting the likelihood of a cardiac cause such as Acute Coronary Syndrome.</t>
+          <t>Unintentional weight loss can sometimes be associated with chronic conditions that may predispose to ACS, although it is not a direct indicator.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of aspiration does not provide direct evidence against Acute Coronary Syndrome, but it indicates that other causes of chest pain related to aspiration are not present.</t>
+          <t>Obesity is a known risk factor for ACS, and its absence decreases the likelihood of ACS.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MBS shows aspiration is absent</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of aspiration on Modified Barium Swallow (MBS) indicates that swallowing issues are not contributing to the patient's symptoms, allowing for a clearer focus on potential cardiac causes like Acute Coronary Syndrome.</t>
+          <t>While high blood pressure is a risk factor for ACS, its absence does not rule out ACS, but its presence would have been more supportive.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>Absence of weakness on exam.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of ILD does not specifically indicate the presence or absence of Acute Coronary Syndrome, as it pertains more to pulmonary conditions.</t>
+          <t>Weakness can be a symptom of cardiac issues, including ACS, so its absence is slightly against ACS.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT shows ILD is absent</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of Interstitial Lung Disease (ILD) on CT imaging suggests that pulmonary causes of chest pain are unlikely, which supports the consideration of Acute Coronary Syndrome as a potential diagnosis.</t>
+          <t>Obesity is a risk factor for ACS, so its absence slightly supports the presence of ACS as it removes a common confounding factor.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum does not rule out Acute Coronary Syndrome, as this finding is more indicative of other conditions such as aortic dissection.</t>
+          <t>Epigastric pain can sometimes be associated with ACS, so its absence slightly reduces the likelihood of ACS.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CXR shows widened mediastinum is absent</t>
+          <t>Absence of neck masses or fullness observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a widened mediastinum on Chest X-ray (CXR) reduces the likelihood of aortic dissection or other mediastinal pathologies, thus favoring the diagnosis of Acute Coronary Syndrome.</t>
+          <t>Neck masses or fullness are not typically associated with ACS, so their absence does not strongly support or refute ACS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia on lab testing is present</t>
+          <t>Absence of joint swelling observed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>While hyperlipidemia is a risk factor for Acute Coronary Syndrome, it is also common in the general population and does not confirm the diagnosis.</t>
+          <t>Joint swelling is not directly related to ACS, but its absence helps rule out other systemic conditions that might mimic ACS.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Acute Coronary Syndrome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Acute Coronary Syndrome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Acute Coronary Syndrome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Acute Coronary Syndrome</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is a known risk factor for coronary artery disease, which can lead to Acute Coronary Syndrome.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not provide evidence against Acute Coronary Syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support Acute Coronary Syndrome, but it does not rule it out either.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS does not provide evidence against Acute Coronary Syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS does not directly relate to Acute Coronary Syndrome, but it does not rule it out.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not provide evidence against Acute Coronary Syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT does not directly support Acute Coronary Syndrome, but it does not rule it out.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not provide evidence against Acute Coronary Syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR does not directly support Acute Coronary Syndrome, but it does not rule it out.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The presence of hyperlipidemia does not provide evidence against Acute Coronary Syndrome.</t>
         </is>
       </c>
     </row>
